--- a/doc/Scenari/Consulta calendario uscita.xlsx
+++ b/doc/Scenari/Consulta calendario uscita.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Caso d'uso</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>2. Il sistema controlla se ci sono uscite inerenti all'utente</t>
-  </si>
-  <si>
-    <t>3b. Se l'utente non partecipa a nessuna uscita viene mostrato il messaggio " Nessuna uscita in programma ".</t>
   </si>
   <si>
     <t>Viene mostrato il risultato nella pagina "Home"</t>
@@ -184,36 +181,36 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,7 +517,7 @@
   <dimension ref="H7:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I21"/>
+      <selection activeCell="I22" sqref="I22:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,72 +575,70 @@
       </c>
     </row>
     <row r="13" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H15" s="8"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H16" s="8"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="8"/>
-      <c r="I17" s="5" t="s">
-        <v>19</v>
+      <c r="H17" s="13"/>
+      <c r="I17" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="8"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>18</v>
+      <c r="I20" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H21" s="11"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="12"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="13"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="14"/>
-      <c r="I25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
